--- a/Ученики.xlsx
+++ b/Ученики.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="Лист2" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="Лист3" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -24,40 +23,35 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t xml:space="preserve">Дата в формате ДД.ММ.ГГГГ - ДД.ММ.ГГГГ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Имя Фамилия</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вася Васильев</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Петя Петров</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Иван Иванов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Андрей Андреев</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Никита Никитин</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рома Романов</t>
+    <t>Дата в формате ДД.ММ.ГГГГ - ДД.ММ.ГГГГ</t>
+  </si>
+  <si>
+    <t>Вася Васильев</t>
+  </si>
+  <si>
+    <t>Петя Петров</t>
+  </si>
+  <si>
+    <t>Иван Иванов</t>
+  </si>
+  <si>
+    <t>Андрей Андреев</t>
+  </si>
+  <si>
+    <t>Никита Никитин</t>
+  </si>
+  <si>
+    <t>Рома Романов</t>
+  </si>
+  <si>
+    <t>ФИО учеников:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
-  </numFmts>
-  <fonts count="4">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,21 +60,11 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -93,7 +77,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -101,100 +85,62 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
     <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1f497d"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="eeece1"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4f81bd"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="c0504d"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9bbb59"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064a2"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4bacc6"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="f79646"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000ff"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
         <a:srgbClr val="800080"/>
@@ -202,12 +148,12 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -236,7 +182,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="1"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -257,7 +203,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -308,7 +254,7 @@
           <a:path path="circle">
             <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -326,137 +272,110 @@
           <a:path path="circle">
             <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="44.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="57.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="45.57"/>
+    <col min="1" max="1" width="44.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="57.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="45.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="n">
+      <c r="B1" s="2">
         <v>45173</v>
       </c>
-      <c r="C1" s="3" t="n">
-        <v>45441</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0"/>
+      <c r="C1" s="3">
+        <v>45437</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="4"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>